--- a/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
+++ b/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Gestão do Projeto/Indicadores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BF0ED83-8270-C642-AB8F-B909FBCA276E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C43E90-266B-0142-99A9-7D1E2F20630E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{C0F9C9BF-D253-6948-A95A-B7EFCC96F5A1}"/>
+    <workbookView xWindow="2820" yWindow="1180" windowWidth="28040" windowHeight="17440" xr2:uid="{C0F9C9BF-D253-6948-A95A-B7EFCC96F5A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>HORUS</t>
   </si>
@@ -60,6 +60,15 @@
   </si>
   <si>
     <t>VMPP incluir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABRIL 23 </t>
+  </si>
+  <si>
+    <t>VTM incluir</t>
+  </si>
+  <si>
+    <t>MAIO</t>
   </si>
 </sst>
 </file>
@@ -411,26 +420,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241E6C99-5351-744D-BE90-781B6BC74936}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="6" width="13.33203125" customWidth="1"/>
+    <col min="3" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -438,19 +447,22 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -461,16 +473,53 @@
         <v>84</v>
       </c>
       <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
         <v>25</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>78</v>
-      </c>
-      <c r="F4">
-        <v>292</v>
       </c>
       <c r="G4">
         <v>292</v>
+      </c>
+      <c r="H4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>4799</v>
+      </c>
+      <c r="C5">
+        <v>1095</v>
+      </c>
+      <c r="D5">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>96</v>
+      </c>
+      <c r="F5">
+        <v>549</v>
+      </c>
+      <c r="G5">
+        <v>643</v>
+      </c>
+      <c r="H5">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>4799</v>
       </c>
     </row>
   </sheetData>

--- a/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
+++ b/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aline\Hospital Sírio Libanês\IPS - IPS\Gestão do Projeto\Indicadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C43E90-266B-0142-99A9-7D1E2F20630E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1180" windowWidth="28040" windowHeight="17440" xr2:uid="{C0F9C9BF-D253-6948-A95A-B7EFCC96F5A1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6912"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +34,64 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ips.nt0001@gmail.com</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ips.nt0001@gmail.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Iniciado 17/04</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>ips.nt0001@gmail.com:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Até dia 21/05</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
@@ -74,14 +131,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -419,27 +489,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241E6C99-5351-744D-BE90-781B6BC74936}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="7" width="13.33203125" customWidth="1"/>
+    <col min="3" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" customWidth="1"/>
+    <col min="6" max="7" width="13.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -462,7 +532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -488,7 +558,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -496,34 +566,53 @@
         <v>4799</v>
       </c>
       <c r="C5">
-        <v>1095</v>
+        <v>1155</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F5">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G5">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="H5">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6">
         <v>4799</v>
+      </c>
+      <c r="C6">
+        <v>1385</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>79</v>
+      </c>
+      <c r="F6">
+        <v>305</v>
+      </c>
+      <c r="G6">
+        <v>850</v>
+      </c>
+      <c r="H6">
+        <v>1223</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
+++ b/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aline\Hospital Sírio Libanês\IPS - IPS\Gestão do Projeto\Indicadores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591E269A-21C7-E341-98B8-53355A028672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6912"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="26680" windowHeight="10900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,18 +36,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ips.nt0001@gmail.com</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
@@ -55,22 +56,31 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Iniciado 17/04</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Iniciado 17/04</t>
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
@@ -79,12 +89,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Segoe UI"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Até dia 21/05</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Até dia 21/05</t>
         </r>
       </text>
     </comment>
@@ -93,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>HORUS</t>
   </si>
@@ -125,13 +144,43 @@
     <t>VTM incluir</t>
   </si>
   <si>
-    <t>MAIO</t>
+    <t>MAIO 23</t>
+  </si>
+  <si>
+    <t>JUNHO 23</t>
+  </si>
+  <si>
+    <t>JULHO 23</t>
+  </si>
+  <si>
+    <t>AGOSTO 23</t>
+  </si>
+  <si>
+    <t>SETEMBRO 23</t>
+  </si>
+  <si>
+    <t>OUTUBRO 23</t>
+  </si>
+  <si>
+    <t>NOVMEBRO 23</t>
+  </si>
+  <si>
+    <t>DEZEMBRO 23</t>
+  </si>
+  <si>
+    <t>TOTAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>% VISTOS HÓRUS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -141,15 +190,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
@@ -162,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,12 +219,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,27 +555,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" customWidth="1"/>
-    <col min="6" max="7" width="13.296875" customWidth="1"/>
+    <col min="3" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="8" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -517,97 +583,236 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>4799</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>84</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
+        <f>(84/B4)</f>
+        <v>1.7503646593040215E-2</v>
+      </c>
+      <c r="E4" s="1">
         <v>11</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="1">
         <v>25</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="1">
         <v>78</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="1">
         <v>292</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="1">
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>4799</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1155</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
+        <f>C5/B5</f>
+        <v>0.24067514065430298</v>
+      </c>
+      <c r="E5" s="1">
         <v>93</v>
       </c>
-      <c r="E5">
+      <c r="F5" s="1">
         <v>93</v>
       </c>
-      <c r="F5">
+      <c r="G5" s="1">
         <v>545</v>
       </c>
-      <c r="G5">
+      <c r="H5" s="1">
         <v>650</v>
       </c>
-      <c r="H5">
+      <c r="I5" s="1">
         <v>596</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>4799</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1385</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
+        <f>C6/B6</f>
+        <v>0.28860179204000835</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="1">
         <v>79</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="1">
         <v>305</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="1">
         <v>850</v>
       </c>
-      <c r="H6">
+      <c r="I6" s="1">
         <v>1223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <f>SUM(C5:C13)</f>
+        <v>2540</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <f t="shared" ref="E14:I14" si="0">SUM(E5:E13)</f>
+        <v>93</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>850</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>1819</v>
       </c>
     </row>
   </sheetData>

--- a/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
+++ b/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591E269A-21C7-E341-98B8-53355A028672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0951A8C-CE2F-1D4D-AC3C-FD806B1B8116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="26680" windowHeight="10900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
+++ b/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0951A8C-CE2F-1D4D-AC3C-FD806B1B8116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448E3E48-371B-844A-A312-81F63A13469B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="26680" windowHeight="10900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14600" yWindow="2280" windowWidth="26680" windowHeight="10900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -559,7 +559,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I14"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,26 +669,26 @@
         <v>4799</v>
       </c>
       <c r="C6" s="1">
-        <v>1385</v>
+        <v>1100</v>
       </c>
       <c r="D6" s="2">
         <f>C6/B6</f>
-        <v>0.28860179204000835</v>
+        <v>0.22921441967076475</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="F6" s="1">
         <v>79</v>
       </c>
       <c r="G6" s="1">
-        <v>305</v>
+        <v>656</v>
       </c>
       <c r="H6" s="1">
-        <v>850</v>
+        <v>1702</v>
       </c>
       <c r="I6" s="1">
-        <v>1223</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -791,12 +791,12 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1">
         <f>SUM(C5:C13)</f>
-        <v>2540</v>
+        <v>2255</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
         <f t="shared" ref="E14:I14" si="0">SUM(E5:E13)</f>
-        <v>93</v>
+        <v>277</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
@@ -804,15 +804,15 @@
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>850</v>
+        <v>1201</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>2352</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>1819</v>
+        <v>4680</v>
       </c>
     </row>
   </sheetData>

--- a/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
+++ b/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448E3E48-371B-844A-A312-81F63A13469B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F669AEB-E38D-F447-8E6E-7D8EB1187381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="2280" windowWidth="26680" windowHeight="10900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3560" yWindow="2280" windowWidth="26680" windowHeight="10900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -559,7 +559,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,8 +672,8 @@
         <v>1100</v>
       </c>
       <c r="D6" s="2">
-        <f>C6/B6</f>
-        <v>0.22921441967076475</v>
+        <f>C14/B6</f>
+        <v>0.46988956032506773</v>
       </c>
       <c r="E6" s="1">
         <v>184</v>

--- a/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
+++ b/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F669AEB-E38D-F447-8E6E-7D8EB1187381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52914CC-7A92-D24F-A7BE-21EC80109E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="2280" windowWidth="26680" windowHeight="10900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="760" windowWidth="26680" windowHeight="10900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>HORUS</t>
   </si>
@@ -556,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,8 +642,8 @@
         <v>1155</v>
       </c>
       <c r="D5" s="2">
-        <f>C5/B5</f>
-        <v>0.24067514065430298</v>
+        <f>(C5+C4)/4799</f>
+        <v>0.25817878724734322</v>
       </c>
       <c r="E5" s="1">
         <v>93</v>
@@ -672,8 +672,8 @@
         <v>1100</v>
       </c>
       <c r="D6" s="2">
-        <f>C14/B6</f>
-        <v>0.46988956032506773</v>
+        <f>(C6+C5+C4)/4799</f>
+        <v>0.48739320691810795</v>
       </c>
       <c r="E6" s="1">
         <v>184</v>
@@ -695,21 +695,38 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="1">
+        <v>4799</v>
+      </c>
+      <c r="C7" s="1">
+        <v>481</v>
+      </c>
+      <c r="D7" s="2">
+        <f>(C7+C6+C5+C4)/B14</f>
+        <v>0.58762242133777876</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="F7" s="1">
+        <v>61</v>
+      </c>
+      <c r="G7" s="1">
+        <v>298</v>
+      </c>
+      <c r="H7" s="1">
+        <v>720</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1965</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -788,31 +805,40 @@
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <v>4799</v>
+      </c>
       <c r="C14" s="1">
-        <f>SUM(C5:C13)</f>
-        <v>2255</v>
-      </c>
-      <c r="D14" s="1"/>
+        <f>SUM(C4:C13)</f>
+        <v>2820</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.58762242133777876</v>
+      </c>
       <c r="E14" s="1">
         <f t="shared" ref="E14:I14" si="0">SUM(E5:E13)</f>
         <v>277</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>1201</v>
+        <v>1499</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>2352</v>
+        <v>3072</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>4680</v>
+        <v>6645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
+++ b/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52914CC-7A92-D24F-A7BE-21EC80109E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1A57CC-B3BA-534B-9942-3D26CFE4D7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="760" windowWidth="26680" windowHeight="10900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>HORUS</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>% VISTOS HÓRUS</t>
+  </si>
+  <si>
+    <t>VMP Incluídos Portal</t>
   </si>
 </sst>
 </file>
@@ -238,10 +241,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,38 +576,42 @@
     <col min="7" max="8" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -630,8 +640,9 @@
       <c r="I4" s="1">
         <v>292</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -660,8 +671,9 @@
       <c r="I5" s="1">
         <v>596</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -690,8 +702,9 @@
       <c r="I6" s="1">
         <v>4084</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -699,27 +712,30 @@
         <v>4799</v>
       </c>
       <c r="C7" s="1">
-        <v>481</v>
+        <v>2007</v>
       </c>
       <c r="D7" s="2">
         <f>(C7+C6+C5+C4)/B14</f>
-        <v>0.58762242133777876</v>
+        <v>0.90560533444467595</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
         <v>61</v>
       </c>
       <c r="G7" s="1">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="H7" s="1">
-        <v>720</v>
+        <v>612</v>
       </c>
       <c r="I7" s="1">
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1729</v>
+      </c>
+      <c r="J7" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -733,8 +749,9 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -746,8 +763,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -759,8 +777,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -772,8 +791,9 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -785,8 +805,9 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -800,8 +821,11 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -810,33 +834,38 @@
       </c>
       <c r="C14" s="1">
         <f>SUM(C4:C13)</f>
-        <v>2820</v>
+        <v>4346</v>
       </c>
       <c r="D14" s="2">
-        <v>0.58762242133777876</v>
+        <f>C14/B14</f>
+        <v>0.90560533444467595</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ref="E14:I14" si="0">SUM(E5:E13)</f>
         <v>277</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>233</v>
+        <f>SUM(F4:F13)</f>
+        <v>258</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>1499</v>
+        <f>SUM(G4:G13)</f>
+        <v>1532</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="0"/>
-        <v>3072</v>
+        <f>SUM(H4:H13)</f>
+        <v>3256</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="0"/>
-        <v>6645</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <f>SUM(I4:I13)</f>
+        <v>6701</v>
+      </c>
+      <c r="J14" s="1">
+        <f>SUM(J5:J13)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>19</v>
       </c>
@@ -844,6 +873,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="E14" formulaRange="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
+++ b/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1A57CC-B3BA-534B-9942-3D26CFE4D7E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE3EE9B-6AE3-2A4A-8A39-972A08236931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="760" windowWidth="26680" windowHeight="10900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>HORUS</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>VMP Incluídos Portal</t>
+  </si>
+  <si>
+    <t>VMP incluídos Portal</t>
+  </si>
+  <si>
+    <t>VMPP incluídos Portal</t>
   </si>
 </sst>
 </file>
@@ -241,12 +247,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,12 +585,12 @@
     <col min="7" max="8" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -607,11 +616,17 @@
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -641,8 +656,10 @@
         <v>292</v>
       </c>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -672,8 +689,10 @@
         <v>596</v>
       </c>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -703,8 +722,10 @@
         <v>4084</v>
       </c>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -731,11 +752,13 @@
       <c r="I7" s="1">
         <v>1729</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -750,8 +773,10 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -764,8 +789,10 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -778,8 +805,10 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -792,8 +821,10 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -806,8 +837,10 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -821,11 +854,13 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -841,7 +876,7 @@
         <v>0.90560533444467595</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" ref="E14:I14" si="0">SUM(E5:E13)</f>
+        <f t="shared" ref="E14" si="0">SUM(E5:E13)</f>
         <v>277</v>
       </c>
       <c r="F14" s="1">
@@ -860,12 +895,14 @@
         <f>SUM(I4:I13)</f>
         <v>6701</v>
       </c>
-      <c r="J14" s="1">
-        <f>SUM(J5:J13)</f>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <f>SUM(L5:L13)</f>
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>19</v>
       </c>

--- a/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
+++ b/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE3EE9B-6AE3-2A4A-8A39-972A08236931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0911B956-76FA-A943-A556-7E99C4E11EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="760" windowWidth="26680" windowHeight="10900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>HORUS</t>
   </si>
@@ -177,13 +177,13 @@
     <t>% VISTOS HÓRUS</t>
   </si>
   <si>
-    <t>VMP Incluídos Portal</t>
-  </si>
-  <si>
     <t>VMP incluídos Portal</t>
   </si>
   <si>
     <t>VMPP incluídos Portal</t>
+  </si>
+  <si>
+    <t>% VMPs incluídos no portal</t>
   </si>
 </sst>
 </file>
@@ -252,11 +252,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,14 +614,14 @@
       <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -739,7 +737,9 @@
         <f>(C7+C6+C5+C4)/B14</f>
         <v>0.90560533444467595</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
       <c r="F7" s="1">
         <v>61</v>
       </c>
@@ -754,27 +754,47 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1">
-        <v>136</v>
-      </c>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="B8" s="1">
+        <v>4799</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4799</v>
+      </c>
+      <c r="D8" s="2">
+        <f>(C8)/B14</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1013</v>
+      </c>
+      <c r="H8" s="1">
+        <v>850</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1223</v>
+      </c>
+      <c r="J8">
+        <v>434</v>
+      </c>
+      <c r="K8" s="4">
+        <f>J8/B8</f>
+        <v>9.0435507397374451E-2</v>
+      </c>
+      <c r="L8">
+        <v>1307</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -856,9 +876,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -868,12 +886,11 @@
         <v>4799</v>
       </c>
       <c r="C14" s="1">
-        <f>SUM(C4:C13)</f>
-        <v>4346</v>
+        <v>4799</v>
       </c>
       <c r="D14" s="2">
         <f>C14/B14</f>
-        <v>0.90560533444467595</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ref="E14" si="0">SUM(E5:E13)</f>
@@ -881,26 +898,28 @@
       </c>
       <c r="F14" s="1">
         <f>SUM(F4:F13)</f>
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G14" s="1">
         <f>SUM(G4:G13)</f>
-        <v>1532</v>
+        <v>2545</v>
       </c>
       <c r="H14" s="1">
         <f>SUM(H4:H13)</f>
-        <v>3256</v>
+        <v>4106</v>
       </c>
       <c r="I14" s="1">
         <f>SUM(I4:I13)</f>
-        <v>6701</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1">
-        <f>SUM(L5:L13)</f>
-        <v>136</v>
-      </c>
+        <v>7924</v>
+      </c>
+      <c r="J14" s="1">
+        <v>434</v>
+      </c>
+      <c r="K14" s="2">
+        <f>J14/B14</f>
+        <v>9.0435507397374451E-2</v>
+      </c>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D15" t="s">

--- a/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
+++ b/Gestão do Projeto/Indicadores/MonitoramentoCargaOBM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0911B956-76FA-A943-A556-7E99C4E11EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B8BCBF6-9F78-0243-90C7-1964AF98E19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="760" windowWidth="26680" windowHeight="10900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="760" windowWidth="26680" windowHeight="13840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>HORUS</t>
   </si>
@@ -132,12 +132,6 @@
     <t>MONITORAMENTO  CARGA OBM  A PARTIR DO HORUS</t>
   </si>
   <si>
-    <t>VMP incluir</t>
-  </si>
-  <si>
-    <t>VMPP incluir</t>
-  </si>
-  <si>
     <t xml:space="preserve">ABRIL 23 </t>
   </si>
   <si>
@@ -184,6 +178,24 @@
   </si>
   <si>
     <t>% VMPs incluídos no portal</t>
+  </si>
+  <si>
+    <t>VTM incluídos PORTAL</t>
+  </si>
+  <si>
+    <t>AMP incluídos Portal</t>
+  </si>
+  <si>
+    <t>% VMPPs incluídos no portal</t>
+  </si>
+  <si>
+    <t>% AMPs incluídos no portal</t>
+  </si>
+  <si>
+    <t>VMP incluidos</t>
+  </si>
+  <si>
+    <t>VMPP inlcuidos</t>
   </si>
 </sst>
 </file>
@@ -220,7 +232,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -243,11 +255,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -255,6 +280,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,26 +603,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="8" width="13.33203125" customWidth="1"/>
+    <col min="3" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="8" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -597,34 +632,49 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="O3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="Q3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -641,25 +691,30 @@
       <c r="E4" s="1">
         <v>11</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
         <v>25</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>78</v>
-      </c>
-      <c r="H4" s="1">
-        <v>292</v>
       </c>
       <c r="I4" s="1">
         <v>292</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1">
+        <v>292</v>
+      </c>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="1"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>4799</v>
@@ -674,25 +729,30 @@
       <c r="E5" s="1">
         <v>93</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
         <v>93</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>545</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>650</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1">
         <v>596</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="1"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>4799</v>
@@ -707,25 +767,30 @@
       <c r="E6" s="1">
         <v>184</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
         <v>79</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>656</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>1702</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
         <v>4084</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="1"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>4799</v>
@@ -740,25 +805,30 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
         <v>61</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>253</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>612</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
         <v>1729</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="1"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>4799</v>
@@ -773,48 +843,82 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
         <v>3</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>1013</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>850</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1">
         <v>1223</v>
       </c>
-      <c r="J8">
-        <v>434</v>
-      </c>
-      <c r="K8" s="4">
-        <f>J8/B8</f>
-        <v>9.0435507397374451E-2</v>
-      </c>
       <c r="L8">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>2545</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1779</v>
+      </c>
+      <c r="Q8" s="8">
+        <f>1779/6072</f>
+        <v>0.29298418972332013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4799</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4799</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>277</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1966</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1779</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="1"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -823,14 +927,21 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="1"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -838,15 +949,22 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="1"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -859,28 +977,40 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="1"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="1"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>4799</v>
@@ -897,34 +1027,86 @@
         <v>277</v>
       </c>
       <c r="F14" s="1">
-        <f>SUM(F4:F13)</f>
+        <v>277</v>
+      </c>
+      <c r="G14" s="1">
         <v>261</v>
       </c>
-      <c r="G14" s="1">
-        <f>SUM(G4:G13)</f>
+      <c r="H14" s="1">
         <v>2545</v>
       </c>
-      <c r="H14" s="1">
-        <f>SUM(H4:H13)</f>
-        <v>4106</v>
-      </c>
       <c r="I14" s="1">
-        <f>SUM(I4:I13)</f>
+        <v>6072</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1779</v>
+      </c>
+      <c r="K14" s="1">
+        <f>SUM(K4:K13)</f>
         <v>7924</v>
       </c>
-      <c r="J14" s="1">
-        <v>434</v>
-      </c>
-      <c r="K14" s="2">
-        <f>J14/B14</f>
-        <v>9.0435507397374451E-2</v>
-      </c>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="1">
+        <v>261</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2545</v>
+      </c>
+      <c r="O14" s="8">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1779</v>
+      </c>
+      <c r="Q14" s="8">
+        <f>1779/6072</f>
+        <v>0.29298418972332013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
